--- a/data/trans_orig/P6706-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6706-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD92BF7C-0653-4BB2-A69F-3F850BA99745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA0B9C7C-9A22-4A21-A389-D4BE951A922D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{83449F71-9721-40C8-83AE-1B35630AB253}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E0EB714F-AB46-4449-9848-52F9CC73912F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="792">
   <si>
     <t>Población según si su trabajo requiere que esconda sus emociones en 2012 (Tasa respuesta: 33,63%)</t>
   </si>
@@ -76,2305 +76,2344 @@
     <t>29,65%</t>
   </si>
   <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
   </si>
   <si>
     <t>15,64%</t>
   </si>
   <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
   </si>
   <si>
     <t>22,4%</t>
   </si>
   <si>
-    <t>16,51%</t>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que esconda sus emociones en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo requiere que esconda sus emociones en 2023 (Tasa respuesta: 10,34%)</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
   </si>
   <si>
     <t>29,67%</t>
   </si>
   <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
   </si>
   <si>
     <t>20,1%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
   </si>
   <si>
     <t>10,2%</t>
   </si>
   <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
   </si>
   <si>
     <t>15,37%</t>
   </si>
   <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que esconda sus emociones en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
   </si>
   <si>
     <t>18,88%</t>
   </si>
   <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo requiere que esconda sus emociones en 2023 (Tasa respuesta: 10,34%)</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
   </si>
   <si>
     <t>20,17%</t>
   </si>
   <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
+    <t>23,66%</t>
   </si>
   <si>
     <t>16,4%</t>
   </si>
   <si>
-    <t>12,92%</t>
+    <t>19,52%</t>
   </si>
 </sst>
 </file>
@@ -2786,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EBB8EC2-A8EC-4700-B126-D82B61D4038A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0A7683-9801-4B33-825E-6CE14F010D06}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3012,13 +3051,13 @@
         <v>13729</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -3027,13 +3066,13 @@
         <v>16411</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>30</v>
@@ -3042,19 +3081,19 @@
         <v>30140</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>12</v>
@@ -3063,13 +3102,13 @@
         <v>13409</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>17</v>
@@ -3078,13 +3117,13 @@
         <v>18335</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>29</v>
@@ -3093,19 +3132,19 @@
         <v>31744</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>18</v>
@@ -3114,13 +3153,13 @@
         <v>21663</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -3129,10 +3168,10 @@
         <v>29158</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>55</v>
@@ -3362,7 +3401,7 @@
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>76</v>
@@ -3413,7 +3452,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>108</v>
@@ -3458,7 +3497,7 @@
         <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,7 +3553,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3526,13 +3565,13 @@
         <v>73407</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -3541,13 +3580,13 @@
         <v>45227</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>112</v>
@@ -3556,13 +3595,13 @@
         <v>118634</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,13 +3616,13 @@
         <v>52624</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>30</v>
@@ -3592,13 +3631,13 @@
         <v>30313</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -3607,13 +3646,13 @@
         <v>82938</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3667,13 @@
         <v>94701</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H18" s="7">
         <v>65</v>
@@ -3643,13 +3682,13 @@
         <v>68351</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="M18" s="7">
         <v>159</v>
@@ -3658,19 +3697,19 @@
         <v>163052</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>84</v>
@@ -3679,13 +3718,13 @@
         <v>87073</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>54</v>
@@ -3694,13 +3733,13 @@
         <v>56170</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>138</v>
@@ -3709,19 +3748,19 @@
         <v>143243</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>107</v>
@@ -3730,13 +3769,13 @@
         <v>111432</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>81</v>
@@ -3745,13 +3784,13 @@
         <v>83711</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>188</v>
@@ -3760,13 +3799,13 @@
         <v>195144</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3822,7 +3861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3834,13 +3873,13 @@
         <v>59325</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -3849,13 +3888,13 @@
         <v>32848</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>155</v>
+        <v>62</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>81</v>
@@ -3864,13 +3903,13 @@
         <v>92174</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,13 +3924,13 @@
         <v>42730</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>27</v>
@@ -3900,13 +3939,13 @@
         <v>30999</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
@@ -3915,13 +3954,13 @@
         <v>73730</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,13 +3975,13 @@
         <v>72583</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -3951,13 +3990,13 @@
         <v>39795</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="M24" s="7">
         <v>96</v>
@@ -3966,19 +4005,19 @@
         <v>112378</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>77</v>
@@ -3987,13 +4026,13 @@
         <v>86254</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -4002,13 +4041,13 @@
         <v>42063</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
         <v>112</v>
@@ -4017,19 +4056,19 @@
         <v>128317</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>69</v>
+        <v>180</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>95</v>
@@ -4038,13 +4077,13 @@
         <v>105746</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H26" s="7">
         <v>64</v>
@@ -4053,13 +4092,13 @@
         <v>74215</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M26" s="7">
         <v>159</v>
@@ -4068,13 +4107,13 @@
         <v>179961</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,7 +4169,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4142,13 +4181,13 @@
         <v>26873</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>90</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -4157,13 +4196,13 @@
         <v>12220</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>36</v>
@@ -4172,13 +4211,13 @@
         <v>39093</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4232,13 @@
         <v>14326</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -4208,13 +4247,13 @@
         <v>11315</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M29" s="7">
         <v>24</v>
@@ -4223,13 +4262,13 @@
         <v>25641</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4283,13 @@
         <v>28070</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -4259,13 +4298,13 @@
         <v>10861</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M30" s="7">
         <v>37</v>
@@ -4274,19 +4313,19 @@
         <v>38931</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>33</v>
@@ -4295,13 +4334,13 @@
         <v>36694</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H31" s="7">
         <v>11</v>
@@ -4310,13 +4349,13 @@
         <v>12619</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M31" s="7">
         <v>44</v>
@@ -4325,19 +4364,19 @@
         <v>49313</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>47</v>
@@ -4346,13 +4385,13 @@
         <v>49296</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H32" s="7">
         <v>19</v>
@@ -4361,13 +4400,13 @@
         <v>21642</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>66</v>
@@ -4376,13 +4415,13 @@
         <v>70938</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>48</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4438,7 +4477,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4450,13 +4489,13 @@
         <v>0</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -4465,13 +4504,13 @@
         <v>981</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -4480,13 +4519,13 @@
         <v>981</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4540,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -4516,13 +4555,13 @@
         <v>0</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -4531,13 +4570,13 @@
         <v>0</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4552,13 +4591,13 @@
         <v>2016</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H36" s="7">
         <v>2</v>
@@ -4567,13 +4606,13 @@
         <v>1857</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -4582,19 +4621,19 @@
         <v>3874</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>0</v>
@@ -4603,13 +4642,13 @@
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -4618,13 +4657,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -4633,19 +4672,19 @@
         <v>0</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
@@ -4654,13 +4693,13 @@
         <v>1000</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4669,13 +4708,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -4684,13 +4723,13 @@
         <v>1000</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4797,13 @@
         <v>256462</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H40" s="7">
         <v>141</v>
@@ -4773,13 +4812,13 @@
         <v>153681</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>256</v>
+        <v>95</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>258</v>
+        <v>61</v>
       </c>
       <c r="M40" s="7">
         <v>384</v>
@@ -4788,13 +4827,13 @@
         <v>410143</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4848,13 @@
         <v>160687</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H41" s="7">
         <v>105</v>
@@ -4824,13 +4863,13 @@
         <v>111852</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="M41" s="7">
         <v>255</v>
@@ -4839,13 +4878,13 @@
         <v>272538</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,13 +4899,13 @@
         <v>280786</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H42" s="7">
         <v>181</v>
@@ -4875,13 +4914,13 @@
         <v>196190</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="M42" s="7">
         <v>451</v>
@@ -4890,19 +4929,19 @@
         <v>476976</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43" s="7">
         <v>282</v>
@@ -4911,13 +4950,13 @@
         <v>299887</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>280</v>
+        <v>175</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="H43" s="7">
         <v>165</v>
@@ -4926,13 +4965,13 @@
         <v>177644</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="M43" s="7">
         <v>447</v>
@@ -4941,19 +4980,19 @@
         <v>477531</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>376</v>
@@ -4962,13 +5001,13 @@
         <v>409124</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>132</v>
+        <v>281</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>289</v>
+        <v>46</v>
       </c>
       <c r="H44" s="7">
         <v>275</v>
@@ -4977,13 +5016,13 @@
         <v>299795</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="M44" s="7">
         <v>651</v>
@@ -4992,13 +5031,13 @@
         <v>708919</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5054,7 +5093,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5076,7 +5115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DAD5A6-A60F-4347-AEE2-8A7CDB60CA46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DA76DB-AC82-4050-B2F0-8859C6B6F645}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5093,7 +5132,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5200,13 +5239,13 @@
         <v>21153</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>297</v>
+        <v>84</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>91</v>
+        <v>264</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5215,13 +5254,13 @@
         <v>9233</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>301</v>
+        <v>37</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -5230,13 +5269,13 @@
         <v>30386</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>219</v>
+        <v>294</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5290,13 @@
         <v>10544</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5266,13 +5305,13 @@
         <v>11931</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>307</v>
+        <v>214</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -5281,13 +5320,13 @@
         <v>22475</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>310</v>
+        <v>45</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5341,13 @@
         <v>19822</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>215</v>
+        <v>304</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -5317,13 +5356,13 @@
         <v>21880</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="M6" s="7">
         <v>40</v>
@@ -5332,19 +5371,19 @@
         <v>41702</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>90</v>
+        <v>309</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>198</v>
+        <v>310</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>97</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>12</v>
@@ -5353,13 +5392,13 @@
         <v>12259</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -5368,13 +5407,13 @@
         <v>21839</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>315</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -5383,19 +5422,19 @@
         <v>34098</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>14</v>
@@ -5404,13 +5443,13 @@
         <v>15332</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -5419,13 +5458,13 @@
         <v>26972</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="M8" s="7">
         <v>41</v>
@@ -5434,13 +5473,13 @@
         <v>42303</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5547,13 @@
         <v>71249</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -5523,13 +5562,13 @@
         <v>35435</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>140</v>
+        <v>332</v>
       </c>
       <c r="M10" s="7">
         <v>104</v>
@@ -5538,13 +5577,13 @@
         <v>106685</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5598,13 @@
         <v>66047</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>62</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H11" s="7">
         <v>36</v>
@@ -5574,13 +5613,13 @@
         <v>34268</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>344</v>
+        <v>132</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -5589,13 +5628,13 @@
         <v>100316</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,13 +5649,13 @@
         <v>69885</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="H12" s="7">
         <v>71</v>
@@ -5625,13 +5664,13 @@
         <v>68747</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M12" s="7">
         <v>138</v>
@@ -5640,19 +5679,19 @@
         <v>138632</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>64</v>
@@ -5661,13 +5700,13 @@
         <v>65194</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -5676,13 +5715,13 @@
         <v>45961</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="M13" s="7">
         <v>113</v>
@@ -5691,19 +5730,19 @@
         <v>111155</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>62</v>
+        <v>358</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>309</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>68</v>
@@ -5712,13 +5751,13 @@
         <v>71809</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H14" s="7">
         <v>91</v>
@@ -5727,13 +5766,13 @@
         <v>89306</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M14" s="7">
         <v>159</v>
@@ -5742,13 +5781,13 @@
         <v>161115</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5804,7 +5843,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5816,13 +5855,13 @@
         <v>93347</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -5831,13 +5870,13 @@
         <v>46618</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>70</v>
+        <v>373</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M16" s="7">
         <v>138</v>
@@ -5846,13 +5885,13 @@
         <v>139965</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5906,13 @@
         <v>72425</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="H17" s="7">
         <v>52</v>
@@ -5882,13 +5921,13 @@
         <v>51930</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>256</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M17" s="7">
         <v>120</v>
@@ -5897,13 +5936,13 @@
         <v>124355</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5957,13 @@
         <v>94524</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H18" s="7">
         <v>78</v>
@@ -5936,10 +5975,10 @@
         <v>388</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M18" s="7">
         <v>168</v>
@@ -5948,19 +5987,19 @@
         <v>171842</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>98</v>
@@ -5969,13 +6008,13 @@
         <v>101930</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -5984,13 +6023,13 @@
         <v>61716</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M19" s="7">
         <v>158</v>
@@ -6011,7 +6050,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>92</v>
@@ -6038,10 +6077,10 @@
         <v>404</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M20" s="7">
         <v>172</v>
@@ -6050,13 +6089,13 @@
         <v>177194</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6112,7 +6151,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6124,13 +6163,13 @@
         <v>76117</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>410</v>
+        <v>223</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="H22" s="7">
         <v>49</v>
@@ -6139,13 +6178,13 @@
         <v>53221</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
@@ -6154,13 +6193,13 @@
         <v>129337</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6214,13 @@
         <v>61851</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>418</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -6190,13 +6229,13 @@
         <v>32849</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>420</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>421</v>
+        <v>177</v>
       </c>
       <c r="M23" s="7">
         <v>86</v>
@@ -6205,13 +6244,13 @@
         <v>94701</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>159</v>
+        <v>420</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>422</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6265,13 @@
         <v>76622</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -6241,13 +6280,13 @@
         <v>49154</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="M24" s="7">
         <v>115</v>
@@ -6256,10 +6295,10 @@
         <v>125775</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>428</v>
@@ -6268,7 +6307,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>80</v>
@@ -6310,16 +6349,16 @@
         <v>435</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>436</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>58</v>
@@ -6358,13 +6397,13 @@
         <v>126456</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,7 +6459,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6432,13 +6471,13 @@
         <v>39915</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -6447,13 +6486,13 @@
         <v>16633</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>38</v>
+        <v>447</v>
       </c>
       <c r="M28" s="7">
         <v>49</v>
@@ -6462,13 +6501,13 @@
         <v>56547</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,7 +6525,7 @@
         <v>21</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>305</v>
+        <v>451</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>452</v>
@@ -6534,13 +6573,13 @@
         <v>44211</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>459</v>
+        <v>101</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>460</v>
+        <v>85</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>461</v>
+        <v>190</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -6549,13 +6588,13 @@
         <v>27053</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>462</v>
+        <v>329</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>40</v>
+        <v>459</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="M30" s="7">
         <v>60</v>
@@ -6564,19 +6603,19 @@
         <v>71264</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>427</v>
+        <v>462</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>27</v>
@@ -6585,13 +6624,13 @@
         <v>30207</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -6600,13 +6639,13 @@
         <v>17568</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>222</v>
+        <v>466</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="M31" s="7">
         <v>42</v>
@@ -6615,19 +6654,19 @@
         <v>47775</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>30</v>
@@ -6636,13 +6675,13 @@
         <v>33569</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -6651,13 +6690,13 @@
         <v>22287</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>379</v>
+        <v>475</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M32" s="7">
         <v>50</v>
@@ -6666,10 +6705,10 @@
         <v>55856</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>477</v>
+        <v>172</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>478</v>
@@ -6728,7 +6767,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -6746,7 +6785,7 @@
         <v>480</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>481</v>
+        <v>239</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6755,10 +6794,10 @@
         <v>1020</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>482</v>
@@ -6791,13 +6830,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -6806,13 +6845,13 @@
         <v>905</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>487</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6821,13 +6860,13 @@
         <v>905</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6842,13 +6881,13 @@
         <v>1996</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6857,10 +6896,10 @@
         <v>1183</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>81</v>
+        <v>491</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>492</v>
@@ -6875,16 +6914,16 @@
         <v>493</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -6893,13 +6932,13 @@
         <v>1024</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6908,13 +6947,13 @@
         <v>1033</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>498</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>499</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -6923,19 +6962,19 @@
         <v>2058</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>500</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>0</v>
@@ -6944,13 +6983,13 @@
         <v>0</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -6959,10 +6998,10 @@
         <v>1049</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>389</v>
+        <v>501</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>502</v>
@@ -6977,7 +7016,7 @@
         <v>503</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>504</v>
@@ -7078,13 +7117,13 @@
         <v>466905</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>23</v>
+        <v>511</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>511</v>
+        <v>106</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>512</v>
+        <v>462</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7099,13 +7138,13 @@
         <v>228692</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>514</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>515</v>
       </c>
       <c r="H41" s="7">
         <v>151</v>
@@ -7114,13 +7153,13 @@
         <v>154223</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>516</v>
+        <v>396</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>517</v>
+        <v>156</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="M41" s="7">
         <v>363</v>
@@ -7129,13 +7168,13 @@
         <v>382914</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7150,13 +7189,13 @@
         <v>307060</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>522</v>
       </c>
       <c r="H42" s="7">
         <v>240</v>
@@ -7165,13 +7204,13 @@
         <v>245334</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="L42" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>525</v>
       </c>
       <c r="M42" s="7">
         <v>524</v>
@@ -7180,19 +7219,19 @@
         <v>552393</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>143</v>
+        <v>525</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>133</v>
+        <v>359</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>526</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43" s="7">
         <v>282</v>
@@ -7201,13 +7240,13 @@
         <v>298570</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>528</v>
-      </c>
       <c r="G43" s="7" t="s">
-        <v>529</v>
+        <v>471</v>
       </c>
       <c r="H43" s="7">
         <v>190</v>
@@ -7216,13 +7255,13 @@
         <v>194739</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>286</v>
+        <v>528</v>
       </c>
       <c r="K43" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M43" s="7">
         <v>472</v>
@@ -7234,16 +7273,16 @@
         <v>531</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>67</v>
+        <v>532</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>262</v>
@@ -7252,13 +7291,13 @@
         <v>283255</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H44" s="7">
         <v>274</v>
@@ -7267,13 +7306,13 @@
         <v>280717</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>172</v>
+        <v>537</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>536</v>
+        <v>347</v>
       </c>
       <c r="M44" s="7">
         <v>536</v>
@@ -7282,10 +7321,10 @@
         <v>563972</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="Q44" s="7" t="s">
         <v>539</v>
@@ -7344,7 +7383,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -7366,7 +7405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED13DAA-BFB9-4A04-8C02-45EA4F096448}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2713A0C-7A15-47DF-AD66-63AACD4BD4D5}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7493,10 +7532,10 @@
         <v>541</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -7505,13 +7544,13 @@
         <v>3230</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>545</v>
+        <v>145</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -7520,13 +7559,13 @@
         <v>11107</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>547</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7541,13 +7580,13 @@
         <v>2113</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -7556,13 +7595,13 @@
         <v>4001</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>551</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>552</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>553</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -7571,13 +7610,13 @@
         <v>6114</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7592,13 +7631,13 @@
         <v>1554</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -7607,13 +7646,13 @@
         <v>9680</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>560</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -7622,19 +7661,19 @@
         <v>11233</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>3</v>
@@ -7643,13 +7682,13 @@
         <v>3248</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>564</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>565</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -7658,13 +7697,13 @@
         <v>5234</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -7673,19 +7712,19 @@
         <v>8482</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>569</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -7694,13 +7733,13 @@
         <v>7793</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -7709,13 +7748,13 @@
         <v>6597</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>28</v>
+        <v>572</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -7724,13 +7763,13 @@
         <v>14391</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>475</v>
+        <v>574</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7798,13 +7837,13 @@
         <v>39071</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>579</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>580</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
@@ -7816,10 +7855,10 @@
         <v>531</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>582</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -7828,13 +7867,13 @@
         <v>57199</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7849,13 +7888,13 @@
         <v>19124</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -7864,13 +7903,13 @@
         <v>8407</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>302</v>
+        <v>499</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -7879,13 +7918,13 @@
         <v>27531</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>590</v>
+        <v>476</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>154</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7900,13 +7939,13 @@
         <v>27782</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
@@ -7915,13 +7954,13 @@
         <v>26816</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>592</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>276</v>
+        <v>593</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M12" s="7">
         <v>47</v>
@@ -7930,19 +7969,19 @@
         <v>54598</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>35</v>
+        <v>595</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>596</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>6</v>
@@ -7951,13 +7990,13 @@
         <v>10119</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -7969,10 +8008,10 @@
         <v>600</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>601</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>602</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -7981,19 +8020,19 @@
         <v>26612</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>603</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>604</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>8</v>
@@ -8002,13 +8041,13 @@
         <v>14646</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>606</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>607</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
@@ -8017,13 +8056,13 @@
         <v>20545</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>609</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>610</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -8032,13 +8071,13 @@
         <v>35192</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8094,7 +8133,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8106,13 +8145,13 @@
         <v>36530</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>616</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -8121,13 +8160,13 @@
         <v>23960</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>619</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -8136,13 +8175,13 @@
         <v>60490</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8157,13 +8196,13 @@
         <v>18986</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>622</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>623</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
@@ -8172,13 +8211,13 @@
         <v>16446</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>625</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>626</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
@@ -8187,13 +8226,13 @@
         <v>35432</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>629</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8208,13 +8247,13 @@
         <v>20772</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>180</v>
+        <v>627</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>630</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
@@ -8223,13 +8262,13 @@
         <v>23733</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>507</v>
+        <v>629</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>447</v>
+        <v>631</v>
       </c>
       <c r="M18" s="7">
         <v>58</v>
@@ -8238,19 +8277,19 @@
         <v>44506</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>16</v>
@@ -8259,13 +8298,13 @@
         <v>15771</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>636</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
@@ -8274,13 +8313,13 @@
         <v>13775</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
@@ -8295,13 +8334,13 @@
         <v>641</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>642</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>12</v>
@@ -8310,13 +8349,13 @@
         <v>15241</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -8331,7 +8370,7 @@
         <v>646</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>619</v>
+        <v>647</v>
       </c>
       <c r="M20" s="7">
         <v>42</v>
@@ -8340,13 +8379,13 @@
         <v>37998</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>445</v>
+        <v>650</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8402,7 +8441,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8414,13 +8453,13 @@
         <v>47967</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
@@ -8429,13 +8468,13 @@
         <v>32287</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>217</v>
+        <v>653</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="M22" s="7">
         <v>90</v>
@@ -8444,13 +8483,13 @@
         <v>80253</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8465,13 +8504,13 @@
         <v>24941</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
@@ -8480,13 +8519,13 @@
         <v>20541</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>659</v>
+        <v>518</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>660</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M23" s="7">
         <v>61</v>
@@ -8495,13 +8534,13 @@
         <v>45482</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8516,13 +8555,13 @@
         <v>28121</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>25</v>
+        <v>667</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="H24" s="7">
         <v>51</v>
@@ -8531,13 +8570,13 @@
         <v>30794</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>667</v>
+        <v>232</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M24" s="7">
         <v>82</v>
@@ -8546,7 +8585,7 @@
         <v>58915</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>670</v>
+        <v>430</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>671</v>
@@ -8558,7 +8597,7 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>13</v>
@@ -8600,16 +8639,16 @@
         <v>679</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>680</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>14</v>
@@ -8618,13 +8657,13 @@
         <v>15810</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>684</v>
       </c>
       <c r="H26" s="7">
         <v>27</v>
@@ -8633,13 +8672,13 @@
         <v>19523</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>593</v>
+        <v>684</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>649</v>
+        <v>685</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="M26" s="7">
         <v>41</v>
@@ -8648,13 +8687,13 @@
         <v>35333</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>111</v>
+        <v>687</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8710,7 +8749,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8722,13 +8761,13 @@
         <v>10722</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>77</v>
+        <v>691</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
@@ -8737,13 +8776,13 @@
         <v>6885</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>689</v>
+        <v>402</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
@@ -8752,13 +8791,13 @@
         <v>17607</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>221</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8773,13 +8812,13 @@
         <v>12500</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
@@ -8788,13 +8827,13 @@
         <v>7739</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>354</v>
+        <v>699</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
@@ -8803,13 +8842,13 @@
         <v>20239</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>213</v>
+        <v>703</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8824,13 +8863,13 @@
         <v>20970</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
@@ -8839,13 +8878,13 @@
         <v>10336</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>646</v>
+        <v>165</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>705</v>
+        <v>233</v>
       </c>
       <c r="M30" s="7">
         <v>39</v>
@@ -8854,19 +8893,19 @@
         <v>31307</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>546</v>
+        <v>710</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>15</v>
@@ -8875,13 +8914,13 @@
         <v>12933</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>708</v>
+        <v>270</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="H31" s="7">
         <v>11</v>
@@ -8890,13 +8929,13 @@
         <v>7078</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>443</v>
+        <v>714</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -8905,19 +8944,19 @@
         <v>20011</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>11</v>
@@ -8926,13 +8965,13 @@
         <v>12211</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
@@ -8941,13 +8980,13 @@
         <v>8024</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>131</v>
+        <v>722</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
@@ -8956,13 +8995,13 @@
         <v>20235</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9018,7 +9057,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -9030,13 +9069,13 @@
         <v>2133</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>72</v>
+        <v>728</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -9045,13 +9084,13 @@
         <v>3192</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="M34" s="7">
         <v>9</v>
@@ -9060,13 +9099,13 @@
         <v>5325</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9081,13 +9120,13 @@
         <v>0</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -9096,13 +9135,13 @@
         <v>1260</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
@@ -9111,13 +9150,13 @@
         <v>1260</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9132,13 +9171,13 @@
         <v>717</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
@@ -9147,13 +9186,13 @@
         <v>1539</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
@@ -9162,19 +9201,19 @@
         <v>2256</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
@@ -9183,13 +9222,13 @@
         <v>563</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>576</v>
+        <v>746</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9198,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>741</v>
+        <v>608</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -9213,19 +9252,19 @@
         <v>562</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>2</v>
@@ -9234,13 +9273,13 @@
         <v>1047</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -9249,13 +9288,13 @@
         <v>471</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
@@ -9264,13 +9303,13 @@
         <v>1518</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>323</v>
+        <v>754</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9338,13 +9377,13 @@
         <v>144300</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>750</v>
+        <v>757</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>751</v>
+        <v>346</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="H40" s="7">
         <v>111</v>
@@ -9353,13 +9392,13 @@
         <v>87683</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>258</v>
+        <v>760</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>754</v>
+        <v>761</v>
       </c>
       <c r="M40" s="7">
         <v>230</v>
@@ -9368,13 +9407,13 @@
         <v>231982</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>755</v>
+        <v>762</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9389,13 +9428,13 @@
         <v>77663</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>758</v>
+        <v>765</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>458</v>
+        <v>767</v>
       </c>
       <c r="H41" s="7">
         <v>86</v>
@@ -9404,13 +9443,13 @@
         <v>58394</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="M41" s="7">
         <v>160</v>
@@ -9419,13 +9458,13 @@
         <v>136058</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>466</v>
+        <v>769</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>600</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9440,13 +9479,13 @@
         <v>99916</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>764</v>
+        <v>229</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>257</v>
+        <v>659</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>765</v>
+        <v>303</v>
       </c>
       <c r="H42" s="7">
         <v>140</v>
@@ -9455,13 +9494,13 @@
         <v>102898</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>767</v>
+        <v>311</v>
       </c>
       <c r="M42" s="7">
         <v>238</v>
@@ -9470,19 +9509,19 @@
         <v>202815</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>98</v>
+        <v>775</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C43" s="7">
         <v>54</v>
@@ -9491,13 +9530,13 @@
         <v>107136</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>284</v>
+        <v>776</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>267</v>
+        <v>777</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="H43" s="7">
         <v>79</v>
@@ -9506,13 +9545,13 @@
         <v>59378</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>68</v>
+        <v>779</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>761</v>
+        <v>780</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>340</v>
+        <v>781</v>
       </c>
       <c r="M43" s="7">
         <v>133</v>
@@ -9521,19 +9560,19 @@
         <v>166514</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>528</v>
+        <v>782</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>50</v>
@@ -9542,13 +9581,13 @@
         <v>66748</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="H44" s="7">
         <v>93</v>
@@ -9557,13 +9596,13 @@
         <v>77918</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>651</v>
+        <v>788</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>624</v>
+        <v>89</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="M44" s="7">
         <v>143</v>
@@ -9572,13 +9611,13 @@
         <v>144666</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>778</v>
+        <v>45</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>751</v>
+        <v>791</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9634,7 +9673,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6706-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6706-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A37C2E73-DC6C-44F7-BB20-D9883633E375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B4C6C39-3599-4D4B-8E99-5E78A7111E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2761FD35-F66C-4625-876E-58E9F35597F2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6239E383-DE5E-48F4-8F6C-3A077D87907D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="791">
   <si>
     <t>Población según si su trabajo requiere que esconda sus emociones en 2012 (Tasa respuesta: 33,63%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -220,7 +220,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>19,05%</t>
@@ -358,7 +358,7 @@
     <t>36,44%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>17,51%</t>
@@ -493,7 +493,7 @@
     <t>31,18%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>16,18%</t>
@@ -625,7 +625,7 @@
     <t>35,38%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>17,31%</t>
@@ -754,7 +754,7 @@
     <t>38,14%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -799,6 +799,12 @@
     <t>67,03%</t>
   </si>
   <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
     <t>18,23%</t>
   </si>
   <si>
@@ -1477,25 +1483,25 @@
     <t>26,17%</t>
   </si>
   <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
   </si>
   <si>
     <t>79,68%</t>
   </si>
   <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>70,21%</t>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
   </si>
   <si>
     <t>17,44%</t>
@@ -1504,105 +1510,111 @@
     <t>75,37%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
   </si>
   <si>
     <t>82,18%</t>
   </si>
   <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
   </si>
   <si>
     <t>17,11%</t>
   </si>
   <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
     <t>21,59%</t>
   </si>
   <si>
@@ -1663,718 +1675,742 @@
     <t>Población según si su trabajo requiere que esconda sus emociones en 2023 (Tasa respuesta: 10,34%)</t>
   </si>
   <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>37,87%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
   </si>
   <si>
     <t>26,14%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
   </si>
   <si>
     <t>9,49%</t>
   </si>
   <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>49,62%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
   </si>
   <si>
     <t>16,28%</t>
   </si>
   <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
   </si>
 </sst>
 </file>
@@ -2786,8 +2822,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CEA2A8E-9923-4CBA-9103-F8376A39BD52}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FC7D7A-EFC7-4D52-B890-22E49B6349CB}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4746,55 +4782,49 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>253</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>243</v>
-      </c>
-      <c r="D40" s="7">
-        <v>256462</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>254</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H40" s="7">
-        <v>141</v>
-      </c>
-      <c r="I40" s="7">
-        <v>153681</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M40" s="7">
-        <v>384</v>
-      </c>
-      <c r="N40" s="7">
-        <v>410143</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,49 +4833,43 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>150</v>
-      </c>
-      <c r="D41" s="7">
-        <v>160687</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H41" s="7">
-        <v>105</v>
-      </c>
-      <c r="I41" s="7">
-        <v>111852</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="M41" s="7">
-        <v>255</v>
-      </c>
-      <c r="N41" s="7">
-        <v>272538</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,49 +4878,43 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>270</v>
-      </c>
-      <c r="D42" s="7">
-        <v>280786</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="H42" s="7">
-        <v>181</v>
-      </c>
-      <c r="I42" s="7">
-        <v>196190</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="M42" s="7">
-        <v>451</v>
-      </c>
-      <c r="N42" s="7">
-        <v>476976</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,49 +4923,43 @@
         <v>39</v>
       </c>
       <c r="C43" s="7">
-        <v>282</v>
-      </c>
-      <c r="D43" s="7">
-        <v>299887</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="H43" s="7">
-        <v>165</v>
-      </c>
-      <c r="I43" s="7">
-        <v>177644</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="M43" s="7">
-        <v>447</v>
-      </c>
-      <c r="N43" s="7">
-        <v>477531</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7"/>
       <c r="O43" s="7" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4956,49 +4968,43 @@
         <v>49</v>
       </c>
       <c r="C44" s="7">
-        <v>376</v>
-      </c>
-      <c r="D44" s="7">
-        <v>409124</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="H44" s="7">
-        <v>275</v>
-      </c>
-      <c r="I44" s="7">
-        <v>299795</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="M44" s="7">
-        <v>651</v>
-      </c>
-      <c r="N44" s="7">
-        <v>708919</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N44" s="7"/>
       <c r="O44" s="7" t="s">
-        <v>292</v>
+        <v>254</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5007,63 +5013,366 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>0</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>243</v>
+      </c>
+      <c r="D46" s="7">
+        <v>256462</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H46" s="7">
+        <v>141</v>
+      </c>
+      <c r="I46" s="7">
+        <v>153681</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="M46" s="7">
+        <v>384</v>
+      </c>
+      <c r="N46" s="7">
+        <v>410143</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>150</v>
+      </c>
+      <c r="D47" s="7">
+        <v>160687</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H47" s="7">
+        <v>105</v>
+      </c>
+      <c r="I47" s="7">
+        <v>111852</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M47" s="7">
+        <v>255</v>
+      </c>
+      <c r="N47" s="7">
+        <v>272539</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>270</v>
+      </c>
+      <c r="D48" s="7">
+        <v>280786</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H48" s="7">
+        <v>181</v>
+      </c>
+      <c r="I48" s="7">
+        <v>196190</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M48" s="7">
+        <v>451</v>
+      </c>
+      <c r="N48" s="7">
+        <v>476976</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="7">
+        <v>282</v>
+      </c>
+      <c r="D49" s="7">
+        <v>299887</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H49" s="7">
+        <v>165</v>
+      </c>
+      <c r="I49" s="7">
+        <v>177644</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M49" s="7">
+        <v>447</v>
+      </c>
+      <c r="N49" s="7">
+        <v>477532</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="7">
+        <v>376</v>
+      </c>
+      <c r="D50" s="7">
+        <v>409124</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H50" s="7">
+        <v>275</v>
+      </c>
+      <c r="I50" s="7">
+        <v>299795</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M50" s="7">
+        <v>651</v>
+      </c>
+      <c r="N50" s="7">
+        <v>708919</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1321</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1406946</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="7">
         <v>867</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>939162</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="7">
         <v>2188</v>
       </c>
-      <c r="N45" s="7">
-        <v>2346108</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>295</v>
+      <c r="N51" s="7">
+        <v>2346109</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5076,8 +5385,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFFDA01-2BBD-48BD-B58F-8F1B4B0A40DE}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1413C3A1-450F-4543-8933-48F6E1CEFF50}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5093,7 +5402,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5200,13 +5509,13 @@
         <v>21153</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5215,13 +5524,13 @@
         <v>9233</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M4" s="7">
         <v>29</v>
@@ -5230,13 +5539,13 @@
         <v>30386</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>219</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,13 +5560,13 @@
         <v>10544</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -5266,13 +5575,13 @@
         <v>11931</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M5" s="7">
         <v>23</v>
@@ -5281,13 +5590,13 @@
         <v>22475</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,13 +5611,13 @@
         <v>19822</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>215</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -5317,13 +5626,13 @@
         <v>21880</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M6" s="7">
         <v>40</v>
@@ -5356,10 +5665,10 @@
         <v>171</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -5368,13 +5677,13 @@
         <v>21839</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>137</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -5383,13 +5692,13 @@
         <v>34098</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,13 +5713,13 @@
         <v>15332</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -5419,13 +5728,13 @@
         <v>26972</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="M8" s="7">
         <v>41</v>
@@ -5434,13 +5743,13 @@
         <v>42303</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>79</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5817,13 @@
         <v>71249</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -5523,10 +5832,10 @@
         <v>35435</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>140</v>
@@ -5538,13 +5847,13 @@
         <v>106685</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5868,13 @@
         <v>66047</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H11" s="7">
         <v>36</v>
@@ -5574,13 +5883,13 @@
         <v>34268</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M11" s="7">
         <v>98</v>
@@ -5592,10 +5901,10 @@
         <v>83</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,13 +5919,13 @@
         <v>69885</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H12" s="7">
         <v>71</v>
@@ -5625,13 +5934,13 @@
         <v>68747</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M12" s="7">
         <v>138</v>
@@ -5640,13 +5949,13 @@
         <v>138632</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5970,13 @@
         <v>65194</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H13" s="7">
         <v>49</v>
@@ -5676,13 +5985,13 @@
         <v>45961</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M13" s="7">
         <v>113</v>
@@ -5691,13 +6000,13 @@
         <v>111155</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +6021,13 @@
         <v>71809</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="H14" s="7">
         <v>91</v>
@@ -5727,13 +6036,13 @@
         <v>89306</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M14" s="7">
         <v>159</v>
@@ -5742,13 +6051,13 @@
         <v>161115</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +6125,13 @@
         <v>93347</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>49</v>
@@ -5831,13 +6140,13 @@
         <v>46618</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>70</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M16" s="7">
         <v>138</v>
@@ -5846,13 +6155,13 @@
         <v>139965</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,10 +6176,10 @@
         <v>72425</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>12</v>
@@ -5882,13 +6191,13 @@
         <v>51930</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M17" s="7">
         <v>120</v>
@@ -5897,13 +6206,13 @@
         <v>124355</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>78</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,10 +6227,10 @@
         <v>94524</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>172</v>
@@ -5933,13 +6242,13 @@
         <v>77318</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M18" s="7">
         <v>168</v>
@@ -5948,13 +6257,13 @@
         <v>171842</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>176</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +6278,13 @@
         <v>101930</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H19" s="7">
         <v>60</v>
@@ -5984,13 +6293,13 @@
         <v>61716</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M19" s="7">
         <v>158</v>
@@ -5999,13 +6308,13 @@
         <v>163646</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +6329,13 @@
         <v>97362</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
         <v>80</v>
@@ -6035,13 +6344,13 @@
         <v>79832</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M20" s="7">
         <v>172</v>
@@ -6050,13 +6359,13 @@
         <v>177194</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,7 +6407,7 @@
         <v>756</v>
       </c>
       <c r="N21" s="7">
-        <v>777002</v>
+        <v>777001</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -6124,13 +6433,13 @@
         <v>76117</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H22" s="7">
         <v>49</v>
@@ -6139,13 +6448,13 @@
         <v>53221</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M22" s="7">
         <v>117</v>
@@ -6154,13 +6463,13 @@
         <v>129337</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6484,13 @@
         <v>61851</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>44</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H23" s="7">
         <v>30</v>
@@ -6190,13 +6499,13 @@
         <v>32849</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M23" s="7">
         <v>86</v>
@@ -6211,7 +6520,7 @@
         <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6535,13 @@
         <v>76622</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H24" s="7">
         <v>46</v>
@@ -6241,13 +6550,13 @@
         <v>49154</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M24" s="7">
         <v>115</v>
@@ -6256,13 +6565,13 @@
         <v>125775</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>140</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6586,13 @@
         <v>87955</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H25" s="7">
         <v>43</v>
@@ -6292,13 +6601,13 @@
         <v>46622</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M25" s="7">
         <v>123</v>
@@ -6307,13 +6616,13 @@
         <v>134577</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,13 +6637,13 @@
         <v>65184</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="H26" s="7">
         <v>55</v>
@@ -6343,13 +6652,13 @@
         <v>61272</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M26" s="7">
         <v>113</v>
@@ -6358,13 +6667,13 @@
         <v>126456</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6741,13 @@
         <v>39915</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -6450,7 +6759,7 @@
         <v>158</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>38</v>
@@ -6462,13 +6771,13 @@
         <v>56547</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,10 +6795,10 @@
         <v>21</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -6498,13 +6807,13 @@
         <v>22339</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M29" s="7">
         <v>35</v>
@@ -6513,13 +6822,13 @@
         <v>40163</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6534,13 +6843,13 @@
         <v>44211</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -6549,13 +6858,13 @@
         <v>27053</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>40</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M30" s="7">
         <v>60</v>
@@ -6564,13 +6873,13 @@
         <v>71264</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6585,13 +6894,13 @@
         <v>30207</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -6603,10 +6912,10 @@
         <v>222</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="M31" s="7">
         <v>42</v>
@@ -6615,13 +6924,13 @@
         <v>47775</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6636,13 +6945,13 @@
         <v>33569</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="H32" s="7">
         <v>20</v>
@@ -6651,13 +6960,13 @@
         <v>22287</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M32" s="7">
         <v>50</v>
@@ -6666,13 +6975,13 @@
         <v>55856</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6734,19 +7043,19 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>2965</v>
+        <v>2170</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>480</v>
+        <v>239</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -6755,28 +7064,28 @@
         <v>1020</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>239</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M34" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34" s="7">
-        <v>3985</v>
+        <v>3190</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6797,7 +7106,7 @@
         <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>246</v>
+        <v>487</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -6806,13 +7115,13 @@
         <v>905</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>239</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6821,13 +7130,13 @@
         <v>905</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>239</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6842,13 +7151,13 @@
         <v>1996</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6863,7 +7172,7 @@
         <v>239</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M36" s="7">
         <v>3</v>
@@ -6872,13 +7181,13 @@
         <v>3179</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>494</v>
+        <v>15</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6893,13 +7202,13 @@
         <v>1024</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="H37" s="7">
         <v>1</v>
@@ -6908,13 +7217,13 @@
         <v>1033</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="K37" s="7" t="s">
         <v>239</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M37" s="7">
         <v>2</v>
@@ -6923,13 +7232,13 @@
         <v>2058</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>239</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,7 +7259,7 @@
         <v>240</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>246</v>
+        <v>487</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -6959,13 +7268,13 @@
         <v>1049</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>239</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M38" s="7">
         <v>1</v>
@@ -6974,13 +7283,13 @@
         <v>1049</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>239</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6989,10 +7298,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39" s="7">
-        <v>5985</v>
+        <v>5190</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>59</v>
@@ -7019,10 +7328,10 @@
         <v>59</v>
       </c>
       <c r="M39" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N39" s="7">
-        <v>11176</v>
+        <v>10381</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>59</v>
@@ -7036,55 +7345,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>253</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>283</v>
+        <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>304746</v>
+        <v>795</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>505</v>
+        <v>243</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>506</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>507</v>
+        <v>59</v>
       </c>
       <c r="H40" s="7">
-        <v>158</v>
-      </c>
-      <c r="I40" s="7">
-        <v>162160</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>508</v>
+        <v>254</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>509</v>
+        <v>254</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>510</v>
+        <v>254</v>
       </c>
       <c r="M40" s="7">
-        <v>441</v>
+        <v>1</v>
       </c>
       <c r="N40" s="7">
-        <v>466905</v>
+        <v>795</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>23</v>
+        <v>243</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>512</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,49 +7400,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>228692</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>513</v>
+        <v>239</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>514</v>
+        <v>240</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="H41" s="7">
-        <v>151</v>
-      </c>
-      <c r="I41" s="7">
-        <v>154223</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>516</v>
+        <v>254</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>517</v>
+        <v>254</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>518</v>
+        <v>254</v>
       </c>
       <c r="M41" s="7">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>382914</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>519</v>
+        <v>239</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>520</v>
+        <v>240</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7144,49 +7449,47 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>307060</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>521</v>
+        <v>239</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>12</v>
+        <v>240</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="H42" s="7">
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="7">
+        <v>0</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P42" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="I42" s="7">
-        <v>245334</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="M42" s="7">
-        <v>524</v>
-      </c>
-      <c r="N42" s="7">
-        <v>552393</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="Q42" s="7" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7195,49 +7498,47 @@
         <v>39</v>
       </c>
       <c r="C43" s="7">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>298570</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>527</v>
+        <v>239</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>528</v>
+        <v>240</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="H43" s="7">
-        <v>190</v>
-      </c>
-      <c r="I43" s="7">
-        <v>194739</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>530</v>
+        <v>254</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
       <c r="M43" s="7">
-        <v>472</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>493309</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>531</v>
+        <v>239</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>67</v>
+        <v>240</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>532</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7246,49 +7547,47 @@
         <v>49</v>
       </c>
       <c r="C44" s="7">
-        <v>262</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>283255</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>533</v>
+        <v>239</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>534</v>
+        <v>240</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>96</v>
+        <v>507</v>
       </c>
       <c r="H44" s="7">
-        <v>274</v>
-      </c>
-      <c r="I44" s="7">
-        <v>280717</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>535</v>
+        <v>254</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>172</v>
+        <v>254</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>536</v>
+        <v>254</v>
       </c>
       <c r="M44" s="7">
-        <v>536</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>563972</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>537</v>
+        <v>239</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>538</v>
+        <v>240</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>539</v>
+        <v>507</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7297,63 +7596,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>795</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>795</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>283</v>
+      </c>
+      <c r="D46" s="7">
+        <v>304746</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="H46" s="7">
+        <v>158</v>
+      </c>
+      <c r="I46" s="7">
+        <v>162160</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="M46" s="7">
+        <v>441</v>
+      </c>
+      <c r="N46" s="7">
+        <v>466905</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>212</v>
+      </c>
+      <c r="D47" s="7">
+        <v>228692</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="H47" s="7">
+        <v>151</v>
+      </c>
+      <c r="I47" s="7">
+        <v>154223</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="M47" s="7">
+        <v>363</v>
+      </c>
+      <c r="N47" s="7">
+        <v>382914</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>284</v>
+      </c>
+      <c r="D48" s="7">
+        <v>307060</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="H48" s="7">
+        <v>240</v>
+      </c>
+      <c r="I48" s="7">
+        <v>245334</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="M48" s="7">
+        <v>524</v>
+      </c>
+      <c r="N48" s="7">
+        <v>552393</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="7">
+        <v>282</v>
+      </c>
+      <c r="D49" s="7">
+        <v>298570</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="H49" s="7">
+        <v>190</v>
+      </c>
+      <c r="I49" s="7">
+        <v>194739</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="M49" s="7">
+        <v>472</v>
+      </c>
+      <c r="N49" s="7">
+        <v>493309</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="7">
+        <v>262</v>
+      </c>
+      <c r="D50" s="7">
+        <v>283255</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H50" s="7">
+        <v>274</v>
+      </c>
+      <c r="I50" s="7">
+        <v>280717</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="M50" s="7">
+        <v>536</v>
+      </c>
+      <c r="N50" s="7">
+        <v>563972</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>1323</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D51" s="7">
         <v>1422322</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="E51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="7">
         <v>1013</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I51" s="7">
         <v>1037172</v>
       </c>
-      <c r="J45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="J51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="7">
         <v>2336</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N51" s="7">
         <v>2459494</v>
       </c>
-      <c r="O45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>295</v>
+      <c r="O51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7366,8 +7972,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FDF0C9-2A9C-49C6-85D0-70B9545366D8}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4AA3724-2DEB-4C1E-A98E-1C5672210B40}">
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7383,7 +7989,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7487,46 +8093,46 @@
         <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>7877</v>
+        <v>9849</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>3230</v>
+        <v>3023</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>11107</v>
+        <v>12873</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7538,46 +8144,46 @@
         <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>2113</v>
+        <v>1834</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>4001</v>
+        <v>3475</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>6114</v>
+        <v>5309</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>264</v>
+        <v>557</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7589,46 +8195,46 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>1554</v>
+        <v>1358</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>9680</v>
+        <v>8429</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
       </c>
       <c r="N6" s="7">
-        <v>11233</v>
+        <v>9787</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>412</v>
+        <v>565</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7640,46 +8246,46 @@
         <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>3248</v>
+        <v>3269</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>563</v>
+        <v>523</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>5234</v>
+        <v>4393</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>239</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>8482</v>
+        <v>7662</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>568</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7691,46 +8297,46 @@
         <v>3</v>
       </c>
       <c r="D8" s="7">
-        <v>7793</v>
+        <v>7082</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>572</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>6597</v>
+        <v>5830</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>28</v>
+        <v>577</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>14391</v>
+        <v>12911</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>475</v>
+        <v>579</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,7 +8348,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="7">
-        <v>22585</v>
+        <v>23392</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>59</v>
@@ -7757,7 +8363,7 @@
         <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>28742</v>
+        <v>25150</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>59</v>
@@ -7772,7 +8378,7 @@
         <v>32</v>
       </c>
       <c r="N9" s="7">
-        <v>51327</v>
+        <v>48542</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>59</v>
@@ -7795,46 +8401,46 @@
         <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>39071</v>
+        <v>37810</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="H10" s="7">
         <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>18128</v>
+        <v>16218</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
       </c>
       <c r="N10" s="7">
-        <v>57199</v>
+        <v>54028</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7846,46 +8452,46 @@
         <v>12</v>
       </c>
       <c r="D11" s="7">
-        <v>19124</v>
+        <v>18683</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>337</v>
+        <v>590</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>8407</v>
+        <v>7592</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>302</v>
+        <v>472</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
       </c>
       <c r="N11" s="7">
-        <v>27531</v>
+        <v>26275</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7897,46 +8503,46 @@
         <v>21</v>
       </c>
       <c r="D12" s="7">
-        <v>27782</v>
+        <v>27148</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>592</v>
+        <v>559</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="H12" s="7">
         <v>26</v>
       </c>
       <c r="I12" s="7">
-        <v>26816</v>
+        <v>24478</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>599</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>276</v>
+        <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="M12" s="7">
         <v>47</v>
       </c>
       <c r="N12" s="7">
-        <v>54598</v>
+        <v>51626</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>35</v>
+        <v>601</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>596</v>
+        <v>391</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,46 +8554,46 @@
         <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>10119</v>
+        <v>9053</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>605</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
       </c>
       <c r="I13" s="7">
-        <v>16493</v>
+        <v>14659</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>601</v>
+        <v>301</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>26612</v>
+        <v>23712</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>605</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,46 +8605,46 @@
         <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>14646</v>
+        <v>14359</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="H14" s="7">
         <v>18</v>
       </c>
       <c r="I14" s="7">
-        <v>20545</v>
+        <v>18486</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
       </c>
       <c r="N14" s="7">
-        <v>35192</v>
+        <v>32844</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8050,7 +8656,7 @@
         <v>70</v>
       </c>
       <c r="D15" s="7">
-        <v>110743</v>
+        <v>107053</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>59</v>
@@ -8065,7 +8671,7 @@
         <v>87</v>
       </c>
       <c r="I15" s="7">
-        <v>90389</v>
+        <v>81433</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>59</v>
@@ -8080,7 +8686,7 @@
         <v>157</v>
       </c>
       <c r="N15" s="7">
-        <v>201132</v>
+        <v>188486</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>59</v>
@@ -8103,46 +8709,46 @@
         <v>34</v>
       </c>
       <c r="D16" s="7">
-        <v>36530</v>
+        <v>34651</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
       </c>
       <c r="I16" s="7">
-        <v>23960</v>
+        <v>21724</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>618</v>
+        <v>137</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
       </c>
       <c r="N16" s="7">
-        <v>60490</v>
+        <v>56375</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>529</v>
+        <v>625</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,46 +8760,46 @@
         <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>18986</v>
+        <v>19154</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>623</v>
+        <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>24</v>
       </c>
       <c r="I17" s="7">
-        <v>16446</v>
+        <v>15651</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>624</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="M17" s="7">
         <v>42</v>
       </c>
       <c r="N17" s="7">
-        <v>35432</v>
+        <v>34805</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8205,46 +8811,46 @@
         <v>22</v>
       </c>
       <c r="D18" s="7">
-        <v>20772</v>
+        <v>19968</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>180</v>
+        <v>633</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>630</v>
+        <v>337</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="H18" s="7">
         <v>36</v>
       </c>
       <c r="I18" s="7">
-        <v>23733</v>
+        <v>22118</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>507</v>
+        <v>635</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>447</v>
+        <v>291</v>
       </c>
       <c r="M18" s="7">
         <v>58</v>
       </c>
       <c r="N18" s="7">
-        <v>44506</v>
+        <v>42086</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8256,46 +8862,46 @@
         <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>15771</v>
+        <v>14286</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>636</v>
+        <v>523</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>358</v>
+        <v>641</v>
       </c>
       <c r="H19" s="7">
         <v>20</v>
       </c>
       <c r="I19" s="7">
-        <v>13775</v>
+        <v>12556</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>644</v>
       </c>
       <c r="M19" s="7">
         <v>36</v>
       </c>
       <c r="N19" s="7">
-        <v>29545</v>
+        <v>26843</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8307,46 +8913,46 @@
         <v>12</v>
       </c>
       <c r="D20" s="7">
-        <v>15241</v>
+        <v>14189</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>87</v>
+        <v>649</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
       </c>
       <c r="I20" s="7">
-        <v>22758</v>
+        <v>21017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>645</v>
+        <v>650</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>619</v>
+        <v>652</v>
       </c>
       <c r="M20" s="7">
         <v>42</v>
       </c>
       <c r="N20" s="7">
-        <v>37998</v>
+        <v>35206</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>445</v>
+        <v>655</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,7 +8964,7 @@
         <v>102</v>
       </c>
       <c r="D21" s="7">
-        <v>107300</v>
+        <v>102248</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>59</v>
@@ -8373,7 +8979,7 @@
         <v>139</v>
       </c>
       <c r="I21" s="7">
-        <v>100672</v>
+        <v>93067</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -8388,7 +8994,7 @@
         <v>241</v>
       </c>
       <c r="N21" s="7">
-        <v>207972</v>
+        <v>195315</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -8411,46 +9017,46 @@
         <v>44</v>
       </c>
       <c r="D22" s="7">
-        <v>47967</v>
+        <v>45451</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>50</v>
+        <v>656</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="H22" s="7">
         <v>46</v>
       </c>
       <c r="I22" s="7">
-        <v>32287</v>
+        <v>29605</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>217</v>
+        <v>659</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="M22" s="7">
         <v>90</v>
       </c>
       <c r="N22" s="7">
-        <v>80253</v>
+        <v>75057</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>653</v>
+        <v>452</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8462,46 +9068,46 @@
         <v>28</v>
       </c>
       <c r="D23" s="7">
-        <v>24941</v>
+        <v>23667</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="H23" s="7">
         <v>33</v>
       </c>
       <c r="I23" s="7">
-        <v>20541</v>
+        <v>18772</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>659</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
       <c r="M23" s="7">
         <v>61</v>
       </c>
       <c r="N23" s="7">
-        <v>45482</v>
+        <v>42439</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>664</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8513,46 +9119,46 @@
         <v>31</v>
       </c>
       <c r="D24" s="7">
-        <v>28121</v>
+        <v>26939</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>25</v>
+        <v>672</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="H24" s="7">
         <v>51</v>
       </c>
       <c r="I24" s="7">
-        <v>30794</v>
+        <v>28999</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="M24" s="7">
         <v>82</v>
       </c>
       <c r="N24" s="7">
-        <v>58915</v>
+        <v>55938</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8564,46 +9170,46 @@
         <v>13</v>
       </c>
       <c r="D25" s="7">
-        <v>64502</v>
+        <v>256460</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
       </c>
       <c r="I25" s="7">
-        <v>16798</v>
+        <v>15603</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
       </c>
       <c r="N25" s="7">
-        <v>81300</v>
+        <v>272064</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8615,46 +9221,46 @@
         <v>14</v>
       </c>
       <c r="D26" s="7">
-        <v>15810</v>
+        <v>14652</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="H26" s="7">
         <v>27</v>
       </c>
       <c r="I26" s="7">
-        <v>19523</v>
+        <v>17960</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>593</v>
+        <v>95</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>649</v>
+        <v>692</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>685</v>
+        <v>57</v>
       </c>
       <c r="M26" s="7">
         <v>41</v>
       </c>
       <c r="N26" s="7">
-        <v>35333</v>
+        <v>32612</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>111</v>
+        <v>693</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>687</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8666,7 +9272,7 @@
         <v>130</v>
       </c>
       <c r="D27" s="7">
-        <v>181341</v>
+        <v>367170</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -8681,7 +9287,7 @@
         <v>186</v>
       </c>
       <c r="I27" s="7">
-        <v>119942</v>
+        <v>110940</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -8696,7 +9302,7 @@
         <v>316</v>
       </c>
       <c r="N27" s="7">
-        <v>301283</v>
+        <v>478110</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -8719,46 +9325,46 @@
         <v>11</v>
       </c>
       <c r="D28" s="7">
-        <v>10722</v>
+        <v>10134</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>688</v>
+        <v>511</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>77</v>
+        <v>695</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>54</v>
+        <v>696</v>
       </c>
       <c r="H28" s="7">
         <v>12</v>
       </c>
       <c r="I28" s="7">
-        <v>6885</v>
+        <v>6326</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>690</v>
+        <v>646</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>691</v>
+        <v>477</v>
       </c>
       <c r="M28" s="7">
         <v>23</v>
       </c>
       <c r="N28" s="7">
-        <v>17607</v>
+        <v>16460</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>221</v>
+        <v>700</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8770,46 +9376,46 @@
         <v>14</v>
       </c>
       <c r="D29" s="7">
-        <v>12500</v>
+        <v>11513</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>694</v>
+        <v>36</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="H29" s="7">
         <v>13</v>
       </c>
       <c r="I29" s="7">
-        <v>7739</v>
+        <v>7153</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="M29" s="7">
         <v>27</v>
       </c>
       <c r="N29" s="7">
-        <v>20239</v>
+        <v>18666</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>213</v>
+        <v>706</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>700</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8821,46 +9427,46 @@
         <v>22</v>
       </c>
       <c r="D30" s="7">
-        <v>20970</v>
+        <v>20165</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="H30" s="7">
         <v>17</v>
       </c>
       <c r="I30" s="7">
-        <v>10336</v>
+        <v>9503</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>646</v>
+        <v>86</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="M30" s="7">
         <v>39</v>
       </c>
       <c r="N30" s="7">
-        <v>31307</v>
+        <v>29667</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>546</v>
+        <v>713</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8872,46 +9478,46 @@
         <v>15</v>
       </c>
       <c r="D31" s="7">
-        <v>12933</v>
+        <v>11801</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="H31" s="7">
         <v>11</v>
       </c>
       <c r="I31" s="7">
-        <v>7078</v>
+        <v>6411</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>443</v>
+        <v>718</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
       </c>
       <c r="N31" s="7">
-        <v>20011</v>
+        <v>18212</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>411</v>
+        <v>723</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8923,46 +9529,46 @@
         <v>11</v>
       </c>
       <c r="D32" s="7">
-        <v>12211</v>
+        <v>11224</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>715</v>
+        <v>196</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>717</v>
+        <v>200</v>
       </c>
       <c r="H32" s="7">
         <v>13</v>
       </c>
       <c r="I32" s="7">
-        <v>8024</v>
+        <v>7408</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>131</v>
+        <v>725</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="M32" s="7">
         <v>24</v>
       </c>
       <c r="N32" s="7">
-        <v>20235</v>
+        <v>18632</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>699</v>
+        <v>728</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8974,7 +9580,7 @@
         <v>73</v>
       </c>
       <c r="D33" s="7">
-        <v>69336</v>
+        <v>64838</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>59</v>
@@ -8989,7 +9595,7 @@
         <v>66</v>
       </c>
       <c r="I33" s="7">
-        <v>40063</v>
+        <v>36800</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -9004,7 +9610,7 @@
         <v>139</v>
       </c>
       <c r="N33" s="7">
-        <v>109399</v>
+        <v>101637</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>59</v>
@@ -9024,49 +9630,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="7">
-        <v>2133</v>
+        <v>1248</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>72</v>
+        <v>239</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
       </c>
       <c r="I34" s="7">
-        <v>3192</v>
+        <v>2998</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>43</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="M34" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N34" s="7">
-        <v>5325</v>
+        <v>4246</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9087,37 +9693,37 @@
         <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>729</v>
+        <v>246</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
       </c>
       <c r="I35" s="7">
-        <v>1260</v>
+        <v>1160</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>730</v>
+        <v>282</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>239</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="M35" s="7">
         <v>2</v>
       </c>
       <c r="N35" s="7">
-        <v>1260</v>
+        <v>1160</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>239</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9129,46 +9735,46 @@
         <v>1</v>
       </c>
       <c r="D36" s="7">
-        <v>717</v>
+        <v>784</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>513</v>
+        <v>741</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="H36" s="7">
         <v>3</v>
       </c>
       <c r="I36" s="7">
-        <v>1539</v>
+        <v>1474</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>315</v>
+        <v>530</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="M36" s="7">
         <v>4</v>
       </c>
       <c r="N36" s="7">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9180,16 +9786,16 @@
         <v>1</v>
       </c>
       <c r="D37" s="7">
-        <v>563</v>
+        <v>512</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>576</v>
+        <v>748</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -9204,22 +9810,22 @@
         <v>240</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
       </c>
       <c r="N37" s="7">
-        <v>562</v>
+        <v>512</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>239</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9231,46 +9837,46 @@
         <v>2</v>
       </c>
       <c r="D38" s="7">
-        <v>1047</v>
+        <v>998</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>239</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
       </c>
       <c r="I38" s="7">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>746</v>
+        <v>28</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>239</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="M38" s="7">
         <v>3</v>
       </c>
       <c r="N38" s="7">
-        <v>1518</v>
+        <v>1439</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>323</v>
+        <v>756</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9279,10 +9885,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="7">
-        <v>4460</v>
+        <v>3542</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>59</v>
@@ -9297,7 +9903,7 @@
         <v>12</v>
       </c>
       <c r="I39" s="7">
-        <v>6462</v>
+        <v>6073</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>59</v>
@@ -9309,10 +9915,10 @@
         <v>59</v>
       </c>
       <c r="M39" s="7">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N39" s="7">
-        <v>10922</v>
+        <v>9615</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>59</v>
@@ -9326,55 +9932,53 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>253</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="7">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="D40" s="7">
-        <v>144300</v>
+        <v>746</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>750</v>
+        <v>243</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>751</v>
+        <v>506</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>752</v>
+        <v>59</v>
       </c>
       <c r="H40" s="7">
-        <v>111</v>
-      </c>
-      <c r="I40" s="7">
-        <v>87683</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" s="7"/>
       <c r="J40" s="7" t="s">
-        <v>753</v>
+        <v>254</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>754</v>
+        <v>254</v>
       </c>
       <c r="M40" s="7">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="N40" s="7">
-        <v>231982</v>
+        <v>746</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>755</v>
+        <v>243</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>756</v>
+        <v>506</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>757</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9383,49 +9987,47 @@
         <v>20</v>
       </c>
       <c r="C41" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D41" s="7">
-        <v>77663</v>
+        <v>0</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>758</v>
+        <v>239</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>759</v>
+        <v>240</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
       <c r="H41" s="7">
-        <v>86</v>
-      </c>
-      <c r="I41" s="7">
-        <v>58394</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" s="7"/>
       <c r="J41" s="7" t="s">
-        <v>760</v>
+        <v>254</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>761</v>
+        <v>254</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>762</v>
+        <v>254</v>
       </c>
       <c r="M41" s="7">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N41" s="7">
-        <v>136058</v>
+        <v>0</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>763</v>
+        <v>239</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>466</v>
+        <v>240</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>600</v>
+        <v>507</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9434,49 +10036,47 @@
         <v>30</v>
       </c>
       <c r="C42" s="7">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>99916</v>
+        <v>0</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>764</v>
+        <v>239</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>765</v>
+        <v>507</v>
       </c>
       <c r="H42" s="7">
-        <v>140</v>
-      </c>
-      <c r="I42" s="7">
-        <v>102898</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" s="7"/>
       <c r="J42" s="7" t="s">
-        <v>653</v>
+        <v>254</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>766</v>
+        <v>254</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>767</v>
+        <v>254</v>
       </c>
       <c r="M42" s="7">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="N42" s="7">
-        <v>202815</v>
+        <v>0</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>768</v>
+        <v>239</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>769</v>
+        <v>240</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>98</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9485,49 +10085,47 @@
         <v>39</v>
       </c>
       <c r="C43" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D43" s="7">
-        <v>107136</v>
+        <v>0</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>770</v>
+        <v>507</v>
       </c>
       <c r="H43" s="7">
-        <v>79</v>
-      </c>
-      <c r="I43" s="7">
-        <v>59378</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7"/>
       <c r="J43" s="7" t="s">
-        <v>68</v>
+        <v>254</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>761</v>
+        <v>254</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>340</v>
+        <v>254</v>
       </c>
       <c r="M43" s="7">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="N43" s="7">
-        <v>166514</v>
+        <v>0</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>528</v>
+        <v>239</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>771</v>
+        <v>240</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>772</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9536,49 +10134,47 @@
         <v>49</v>
       </c>
       <c r="C44" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D44" s="7">
-        <v>66748</v>
+        <v>0</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>773</v>
+        <v>239</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>774</v>
+        <v>240</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>775</v>
+        <v>507</v>
       </c>
       <c r="H44" s="7">
-        <v>93</v>
-      </c>
-      <c r="I44" s="7">
-        <v>77918</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7"/>
       <c r="J44" s="7" t="s">
-        <v>651</v>
+        <v>254</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>624</v>
+        <v>254</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>776</v>
+        <v>254</v>
       </c>
       <c r="M44" s="7">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="N44" s="7">
-        <v>144666</v>
+        <v>0</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>777</v>
+        <v>239</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>778</v>
+        <v>240</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>751</v>
+        <v>507</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9587,63 +10183,370 @@
         <v>3</v>
       </c>
       <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7">
+        <v>746</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="7">
+        <v>0</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="M45" s="7">
+        <v>1</v>
+      </c>
+      <c r="N45" s="7">
+        <v>746</v>
+      </c>
+      <c r="O45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q45" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="7">
+        <v>119</v>
+      </c>
+      <c r="D46" s="7">
+        <v>139889</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="H46" s="7">
+        <v>111</v>
+      </c>
+      <c r="I46" s="7">
+        <v>79896</v>
+      </c>
+      <c r="J46" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="M46" s="7">
+        <v>230</v>
+      </c>
+      <c r="N46" s="7">
+        <v>219785</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="7">
+        <v>74</v>
+      </c>
+      <c r="D47" s="7">
+        <v>74851</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="H47" s="7">
+        <v>86</v>
+      </c>
+      <c r="I47" s="7">
+        <v>53803</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="M47" s="7">
+        <v>160</v>
+      </c>
+      <c r="N47" s="7">
+        <v>128654</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="7">
+        <v>98</v>
+      </c>
+      <c r="D48" s="7">
+        <v>96363</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="H48" s="7">
+        <v>140</v>
+      </c>
+      <c r="I48" s="7">
+        <v>95001</v>
+      </c>
+      <c r="J48" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="L48" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="M48" s="7">
+        <v>238</v>
+      </c>
+      <c r="N48" s="7">
+        <v>191364</v>
+      </c>
+      <c r="O48" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="Q48" s="7" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="7">
+        <v>54</v>
+      </c>
+      <c r="D49" s="7">
+        <v>295382</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="H49" s="7">
+        <v>79</v>
+      </c>
+      <c r="I49" s="7">
+        <v>53622</v>
+      </c>
+      <c r="J49" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="M49" s="7">
+        <v>133</v>
+      </c>
+      <c r="N49" s="7">
+        <v>349004</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="7">
+        <v>50</v>
+      </c>
+      <c r="D50" s="7">
+        <v>62505</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="H50" s="7">
+        <v>93</v>
+      </c>
+      <c r="I50" s="7">
+        <v>71140</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="M50" s="7">
+        <v>143</v>
+      </c>
+      <c r="N50" s="7">
+        <v>133645</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="7">
         <v>395</v>
       </c>
-      <c r="D45" s="7">
-        <v>495763</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="D51" s="7">
+        <v>668989</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="7">
         <v>509</v>
       </c>
-      <c r="I45" s="7">
-        <v>386271</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M45" s="7">
+      <c r="I51" s="7">
+        <v>353462</v>
+      </c>
+      <c r="J51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M51" s="7">
         <v>904</v>
       </c>
-      <c r="N45" s="7">
-        <v>882034</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>295</v>
+      <c r="N51" s="7">
+        <v>1022451</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A46:A51"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
